--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam2-Itgb1.xlsx
@@ -543,10 +543,10 @@
         <v>0.040137</v>
       </c>
       <c r="I2">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J2">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>2.054064722902667</v>
+        <v>1.949330262895334</v>
       </c>
       <c r="R2">
-        <v>18.486582506124</v>
+        <v>17.543972366058</v>
       </c>
       <c r="S2">
-        <v>0.1319531055823524</v>
+        <v>0.07434537852950945</v>
       </c>
       <c r="T2">
-        <v>0.1319531055823524</v>
+        <v>0.07434537852950944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.040137</v>
       </c>
       <c r="I3">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J3">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
         <v>2.258371221977334</v>
@@ -635,10 +635,10 @@
         <v>20.325340997796</v>
       </c>
       <c r="S3">
-        <v>0.1450777538677599</v>
+        <v>0.08613187131701081</v>
       </c>
       <c r="T3">
-        <v>0.1450777538677598</v>
+        <v>0.08613187131701078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.040137</v>
       </c>
       <c r="I4">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J4">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>1.251775002067</v>
+        <v>1.714199823285333</v>
       </c>
       <c r="R4">
-        <v>11.265975018603</v>
+        <v>15.427798409568</v>
       </c>
       <c r="S4">
-        <v>0.08041401868762989</v>
+        <v>0.06537775417700434</v>
       </c>
       <c r="T4">
-        <v>0.08041401868762987</v>
+        <v>0.06537775417700432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.040137</v>
       </c>
       <c r="I5">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J5">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>0.9109804358766669</v>
+        <v>0.8798174759409999</v>
       </c>
       <c r="R5">
-        <v>8.198823922890002</v>
+        <v>7.918357283468999</v>
       </c>
       <c r="S5">
-        <v>0.0585213777824991</v>
+        <v>0.03355530077728205</v>
       </c>
       <c r="T5">
-        <v>0.0585213777824991</v>
+        <v>0.03355530077728205</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H6">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I6">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J6">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>2.883991414267555</v>
+        <v>5.565137076373111</v>
       </c>
       <c r="R6">
-        <v>25.95592272840799</v>
+        <v>50.086233687358</v>
       </c>
       <c r="S6">
-        <v>0.1852675912994965</v>
+        <v>0.2122483964810748</v>
       </c>
       <c r="T6">
-        <v>0.1852675912994965</v>
+        <v>0.2122483964810748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H7">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I7">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J7">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
-        <v>3.170846148025778</v>
+        <v>6.447417176488445</v>
       </c>
       <c r="R7">
-        <v>28.537615332232</v>
+        <v>58.026754588396</v>
       </c>
       <c r="S7">
-        <v>0.2036951376900052</v>
+        <v>0.2458976191195733</v>
       </c>
       <c r="T7">
-        <v>0.2036951376900052</v>
+        <v>0.2458976191195733</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H8">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I8">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J8">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>1.757543624747333</v>
+        <v>4.893863894929778</v>
       </c>
       <c r="R8">
-        <v>15.817892622726</v>
+        <v>44.044775054368</v>
       </c>
       <c r="S8">
-        <v>0.1129045920004658</v>
+        <v>0.1866467528186061</v>
       </c>
       <c r="T8">
-        <v>0.1129045920004657</v>
+        <v>0.1866467528186061</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H9">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I9">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J9">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>1.279054027042222</v>
+        <v>2.511788253124333</v>
       </c>
       <c r="R9">
-        <v>11.51148624338</v>
+        <v>22.606094278119</v>
       </c>
       <c r="S9">
-        <v>0.08216642308979132</v>
+        <v>0.09579692677993917</v>
       </c>
       <c r="T9">
-        <v>0.08216642308979132</v>
+        <v>0.09579692677993917</v>
       </c>
     </row>
   </sheetData>
